--- a/数据整理/stocks/A股/创业板/300415-伊之密.xlsx
+++ b/数据整理/stocks/A股/创业板/300415-伊之密.xlsx
@@ -451,183 +451,243 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0938</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4261</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>007113</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>永赢高端制造混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>93.68</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.83</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>007114</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>永赢高端制造混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>93.68</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.83</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009891</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>融通产业趋势臻选股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>75.30</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005668</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>融通新能源汽车主题精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009835</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>融通新能源汽车主题精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001070</t>
+          <t>005668</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信信息产业股票</t>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.71</t>
+          <t>15.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3431</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004250</t>
+          <t>000717</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河量化优选混合</t>
+          <t>融通转型三动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.01</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4415</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -734,26 +824,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005341</t>
+          <t>161605</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长安裕泰灵活配置混合A</t>
+          <t>融通蓝筹成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.73</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>77.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3300</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005342</t>
+          <t>001070</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长安裕泰灵活配置混合C</t>
+          <t>建信信息产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.73</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -790,26 +900,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000308</t>
+          <t>009800</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>建信创新中国混合</t>
+          <t>长盛制造精选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>85.84</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -818,26 +938,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005429</t>
+          <t>009835</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>渤海汇金睿选混合A</t>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -846,26 +976,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005430</t>
+          <t>160813</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>渤海汇金睿选混合C</t>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25.03</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>007202</t>
+          <t>008962</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合</t>
+          <t>建信科技创新混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>88.90</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005668</t>
+          <t>168207</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>融通新能源汽车主题精选灵活配置混合A</t>
+          <t>中融创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.53</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.71</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>81.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009835</t>
+          <t>007202</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>融通新能源汽车主题精选灵活配置混合C</t>
+          <t>天弘优质成长企业精选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.53</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.71</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009800</t>
+          <t>008009</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长盛制造精选混合A</t>
+          <t>华商高端装备制造股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>85.67</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009801</t>
+          <t>001457</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长盛制造精选混合C</t>
+          <t>华商新常态灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>85.67</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000717</t>
+          <t>010570</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合A</t>
+          <t>新沃创新领航混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>8.64</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009828</t>
+          <t>519975</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合C</t>
+          <t>长信量化中小盘股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8.64</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1080,15 +1290,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>64.37</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2.75</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010195</t>
+          <t>005341</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>博时睿祥15个月定期开放混合C</t>
+          <t>长安裕泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>64.37</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>410006</t>
+          <t>000308</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华富策略精选混合</t>
+          <t>建信创新中国混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>71.94</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010570</t>
+          <t>010571</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>新沃创新领航混合A</t>
+          <t>新沃创新领航混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>73.77</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>3.18</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010571</t>
+          <t>001209</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>新沃创新领航混合C</t>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>73.77</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001209</t>
+          <t>005342</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>前海开源一带一路主题精选灵活配置混合A</t>
+          <t>长安裕泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>85.92</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>002080</t>
+          <t>002281</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>前海开源一带一路主题精选灵活配置混合C</t>
+          <t>建信裕利灵活配置混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>85.92</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>10</v>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001457</t>
+          <t>009801</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华商新常态灵活配置混合</t>
+          <t>长盛制造精选混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>84.40</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001531</t>
+          <t>009828</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>招商安益灵活配置混合</t>
+          <t>融通转型三动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>76.03</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001917</t>
+          <t>002271</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>招商量化精选股票A</t>
+          <t>招商安弘灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>8</v>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>007950</t>
+          <t>160522</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>招商量化精选股票C</t>
+          <t>博时睿益事件驱动灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>93.02</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>519975</t>
+          <t>001531</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>长信量化中小盘股票</t>
+          <t>招商安益灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
+          <t>76.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>160522</t>
+          <t>001917</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>博时睿益事件驱动灵活配置混合（LOF）</t>
+          <t>招商量化精选股票A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>88.46</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>7</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>160813</t>
+          <t>008963</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+          <t>建信科技创新混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>80.46</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>10</v>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>002271</t>
+          <t>004250</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>招商安弘灵活配置混合</t>
+          <t>银河量化优选混合</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>77.58</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>6</v>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>002281</t>
+          <t>002564</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>建信裕利灵活配置混合</t>
+          <t>新沃通盈灵活配置混合</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>89.07</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>4</v>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>161605</t>
+          <t>003092</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>融通蓝筹成长混合</t>
+          <t>华商丰利增强定期开放债券A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>77.11</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>5</v>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>002564</t>
+          <t>002080</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>新沃通盈灵活配置混合</t>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>7</v>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>168207</t>
+          <t>410006</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>中融创业板两年定期开放混合</t>
+          <t>华富策略精选混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>81.23</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>7</v>
+          <t>71.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>008962</t>
+          <t>003093</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>建信科技创新混合A</t>
+          <t>华商丰利增强定期开放债券C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>4</v>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>008963</t>
+          <t>007950</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>建信科技创新混合C</t>
+          <t>招商量化精选股票C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>4</v>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="37">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>003092</t>
+          <t>005429</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华商丰利增强定期开放债券A</t>
+          <t>渤海汇金睿选混合A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>9</v>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -1686,25 +2116,35 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>003093</t>
+          <t>010195</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华商丰利增强定期开放债券C</t>
+          <t>博时睿祥15个月定期开放混合C</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>20.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1714,25 +2154,35 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>008009</t>
+          <t>005430</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华商高端装备制造股票</t>
+          <t>渤海汇金睿选混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>86.47</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300415-伊之密.xlsx
+++ b/数据整理/stocks/A股/创业板/300415-伊之密.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2189,4 +2190,744 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9640</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8744</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>40.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7306</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7142</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4372</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>40.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160522</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时睿益事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300415-伊之密.xlsx
+++ b/数据整理/stocks/A股/创业板/300415-伊之密.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2930,4 +2931,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300415-伊之密.xlsx
+++ b/数据整理/stocks/A股/创业板/300415-伊之密.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2939,7 +2940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2950,17 +2951,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2970,14 +2991,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.42</v>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2986,14 +3029,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>38</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.15</v>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3002,13 +3067,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>38</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.96</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300415-伊之密.xlsx
+++ b/数据整理/stocks/A股/创业板/300415-伊之密.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3148,7 +3149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3159,17 +3160,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3179,14 +3200,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7998</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -3195,14 +3238,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.42</v>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3732</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3211,14 +3276,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>38</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.15</v>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3227,13 +3314,265 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.96</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300415-伊之密.xlsx
+++ b/数据整理/stocks/A股/创业板/300415-伊之密.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3471,7 +3472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3482,17 +3483,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3502,14 +3523,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.71</v>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3984</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3518,14 +3561,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3697</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3534,14 +3599,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.42</v>
+          <t>004738</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -3550,14 +3637,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>38</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.15</v>
+          <t>012367</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2413</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3566,13 +3675,585 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>012366</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004824</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1266</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004739</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根安隆回报混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1095</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004823</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根安裕回报混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009186</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009187</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘聚新三个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>27.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>38</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.96</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300415-伊之密.xlsx
+++ b/数据整理/stocks/A股/创业板/300415-伊之密.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,37 +467,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -507,36 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005668</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>融通新能源汽车主题精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.11</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0938</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="3">
@@ -545,36 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009891</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>融通产业趋势臻选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17.25</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>75.30</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4261</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row r="4">
@@ -583,36 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007113</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>永赢高端制造混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2888</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -621,36 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009835</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>融通新能源汽车主题精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.83</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1299</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.42</v>
       </c>
     </row>
     <row r="6">
@@ -659,36 +551,30 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007114</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>永赢高端制造混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0188</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>38</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.96</v>
       </c>
     </row>
   </sheetData>
@@ -702,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -753,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005668</t>
+          <t>009663</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>融通新能源汽车主题精选灵活配置混合A</t>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.42</t>
+          <t>11.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.53</t>
+          <t>76.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.3431</t>
+          <t>0.3984</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -791,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000717</t>
+          <t>501202</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>融通转型三动力灵活配置混合A</t>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.11</t>
+          <t>10.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.07</t>
+          <t>76.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.64</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.4415</t>
+          <t>0.3697</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -829,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161605</t>
+          <t>004738</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通蓝筹成长混合</t>
+          <t>上投摩根安隆回报混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>22.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>77.11</t>
+          <t>23.57</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3300</t>
+          <t>0.3260</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -867,32 +753,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001070</t>
+          <t>012367</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信信息产业股票</t>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.75</t>
+          <t>19.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.71</t>
+          <t>24.13</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1933</t>
+          <t>0.2413</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -905,36 +791,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009800</t>
+          <t>012366</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长盛制造精选混合A</t>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.27</t>
+          <t>15.89</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.67</t>
+          <t>24.13</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.64</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1918</t>
+          <t>0.1923</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -943,36 +829,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009835</t>
+          <t>004824</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>融通新能源汽车主题精选灵活配置混合C</t>
+          <t>上投摩根安裕回报混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.53</t>
+          <t>34.44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.71</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1873</t>
+          <t>0.1266</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -981,36 +867,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>160813</t>
+          <t>004739</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
+          <t>上投摩根安隆回报混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.77</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>80.46</t>
+          <t>23.57</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1794</t>
+          <t>0.1095</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1019,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008962</t>
+          <t>004823</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>建信科技创新混合A</t>
+          <t>上投摩根安裕回报混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.33</t>
+          <t>34.44</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1564</t>
+          <t>0.0712</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1057,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>168207</t>
+          <t>008178</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中融创业板两年定期开放混合</t>
+          <t>同泰慧盈混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>81.23</t>
+          <t>89.28</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.76</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1387</t>
+          <t>0.0309</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1095,36 +981,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>007202</t>
+          <t>009186</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天弘优质成长企业精选混合</t>
+          <t>天弘聚新三个月定期开放混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>88.90</t>
+          <t>27.80</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1382</t>
+          <t>0.0287</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1133,36 +1019,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>008009</t>
+          <t>007770</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华商高端装备制造股票</t>
+          <t>同泰开泰混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.09</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>86.47</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1337</t>
+          <t>0.0188</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1171,32 +1057,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001457</t>
+          <t>008179</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华商新常态灵活配置混合</t>
+          <t>同泰慧盈混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>84.40</t>
+          <t>89.28</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.56</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0805</t>
+          <t>0.0126</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1209,36 +1095,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010570</t>
+          <t>710301</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>新沃创新领航混合A</t>
+          <t>富安达增强收益债券A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>73.77</t>
+          <t>20.42</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.18</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0741</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1247,36 +1133,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>519975</t>
+          <t>007771</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长信量化中小盘股票</t>
+          <t>同泰开泰混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>92.49</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0739</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1285,36 +1171,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010194</t>
+          <t>710302</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>博时睿祥15个月定期开放混合A</t>
+          <t>富安达增强收益债券C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>64.37</t>
+          <t>20.42</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0646</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1323,872 +1209,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005341</t>
+          <t>009187</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>长安裕泰灵活配置混合A</t>
+          <t>天弘聚新三个月定期开放混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>88.73</t>
+          <t>27.80</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0620</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>000308</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>建信创新中国混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>85.84</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0606</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>010571</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>新沃创新领航混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>73.77</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0547</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001209</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>前海开源一带一路主题精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>85.92</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0443</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005342</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>长安裕泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>88.73</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0405</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>002281</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>建信裕利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>89.07</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0304</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009801</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>长盛制造精选混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>85.67</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0186</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>009828</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>融通转型三动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>95.07</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>8.64</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0173</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002271</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>招商安弘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>77.58</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0162</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>160522</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>博时睿益事件驱动灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>88.46</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001531</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>招商安益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>76.03</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001917</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>招商量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>008963</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>建信科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>92.33</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>004250</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>银河量化优选混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0075</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002564</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>新沃通盈灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>003092</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华商丰利增强定期开放债券A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.99</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>20.02</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>002080</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>前海开源一带一路主题精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>85.92</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>410006</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>华富策略精选混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>71.94</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>003093</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>华商丰利增强定期开放债券C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>20.02</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>007950</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>招商量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>93.02</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>005429</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>渤海汇金睿选混合A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>25.03</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>010195</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>博时睿祥15个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>64.37</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>005430</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>渤海汇金睿选混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>25.03</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0000</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2202,7 +1252,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2223,7 +1273,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2263,26 +1313,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.47</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.84</t>
+          <t>86.34</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.9640</t>
+          <t>0.7998</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2291,32 +1341,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160726</t>
+          <t>012366</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
+          <t>上投摩根安荣回报混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31.68</t>
+          <t>41.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.39</t>
+          <t>21.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8744</t>
+          <t>0.3732</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -2329,36 +1379,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010885</t>
+          <t>004738</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长盛优势企业精选混合A</t>
+          <t>上投摩根安隆回报混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>29.70</t>
+          <t>23.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>40.01</t>
+          <t>21.18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7306</t>
+          <t>0.2373</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2367,32 +1417,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009138</t>
+          <t>012367</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合A</t>
+          <t>上投摩根安荣回报混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28.80</t>
+          <t>23.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>87.93</t>
+          <t>21.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7142</t>
+          <t>0.2155</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2405,36 +1455,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000408</t>
+          <t>004739</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>民生加银城镇化混合A</t>
+          <t>上投摩根安隆回报混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10.41</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>83.97</t>
+          <t>21.18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4372</t>
+          <t>0.0754</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2443,32 +1493,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>168207</t>
+          <t>710301</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中融创业板两年定期开放混合</t>
+          <t>富安达增强收益债券A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.67</t>
+          <t>20.20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1716</t>
+          <t>0.0095</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -2481,454 +1531,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009139</t>
+          <t>710302</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合C</t>
+          <t>富安达增强收益债券C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>87.93</t>
+          <t>20.20</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.48</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1394</t>
+          <t>0.0041</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000729</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>建信中小盘先锋股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.56</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1032</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010194</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时睿祥15个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>69.94</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0648</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010570</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>新沃创新领航混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.85</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0632</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>010886</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长盛优势企业精选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.93</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>40.01</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0475</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010571</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>新沃创新领航混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.85</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0425</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>540007</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>汇丰晋信中小盘股票</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0411</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>160522</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时睿益事件驱动灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>84.48</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0125</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001917</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009706</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>民生加银城镇化混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>83.97</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007950</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>招商量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>010195</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>博时睿祥15个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>69.94</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3150,7 +1782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3171,7 +1803,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3211,26 +1843,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>22.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.34</t>
+          <t>79.84</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.7998</t>
+          <t>0.9640</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3239,32 +1871,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012366</t>
+          <t>160726</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上投摩根安荣回报混合型证券投资基金A</t>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.47</t>
+          <t>31.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>21.90</t>
+          <t>96.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3732</t>
+          <t>0.8744</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -3277,36 +1909,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004738</t>
+          <t>010885</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根安隆回报混合A</t>
+          <t>长盛优势企业精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23.04</t>
+          <t>29.70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>21.18</t>
+          <t>40.01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.2373</t>
+          <t>0.7306</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3315,32 +1947,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012367</t>
+          <t>009138</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根安荣回报混合型证券投资基金C</t>
+          <t>嘉实瑞成两年持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.94</t>
+          <t>28.80</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>21.90</t>
+          <t>87.93</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2155</t>
+          <t>0.7142</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3353,36 +1985,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004739</t>
+          <t>000408</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根安隆回报混合C</t>
+          <t>民生加银城镇化混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>10.41</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>21.18</t>
+          <t>83.97</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0754</t>
+          <t>0.4372</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -3391,32 +2023,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>710301</t>
+          <t>168207</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富安达增强收益债券A</t>
+          <t>中融创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>20.20</t>
+          <t>88.67</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0095</t>
+          <t>0.1716</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -3429,36 +2061,454 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>710302</t>
+          <t>009139</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富安达增强收益债券C</t>
+          <t>嘉实瑞成两年持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>20.20</t>
+          <t>87.93</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0041</t>
+          <t>0.1394</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>40.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160522</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时睿益事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3472,7 +2522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3493,7 +2543,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -3523,36 +2573,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009663</t>
+          <t>005668</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.65</t>
+          <t>15.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.85</t>
+          <t>89.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3984</t>
+          <t>1.3431</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3561,36 +2611,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501202</t>
+          <t>000717</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+          <t>融通转型三动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.81</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.85</t>
+          <t>95.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>8.64</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3697</t>
+          <t>0.4415</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3599,36 +2649,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004738</t>
+          <t>161605</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>上投摩根安隆回报混合A</t>
+          <t>融通蓝筹成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.80</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23.57</t>
+          <t>77.11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3260</t>
+          <t>0.3300</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3637,32 +2687,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012367</t>
+          <t>001070</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上投摩根安荣回报混合型证券投资基金C</t>
+          <t>建信信息产业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19.94</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24.13</t>
+          <t>89.71</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.2413</t>
+          <t>0.1933</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3675,36 +2725,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012366</t>
+          <t>009800</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上投摩根安荣回报混合型证券投资基金A</t>
+          <t>长盛制造精选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.89</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>24.13</t>
+          <t>85.67</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>3.64</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1923</t>
+          <t>0.1918</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -3713,36 +2763,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004824</t>
+          <t>009835</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上投摩根安裕回报混合C</t>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.15</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>34.44</t>
+          <t>89.53</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>8.71</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1266</t>
+          <t>0.1873</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -3751,36 +2801,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004739</t>
+          <t>160813</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上投摩根安隆回报混合C</t>
+          <t>长盛同盛成长优选灵活配置混合 (LOF)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.66</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>23.57</t>
+          <t>80.46</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1095</t>
+          <t>0.1794</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -3789,36 +2839,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004823</t>
+          <t>008962</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上投摩根安裕回报混合A</t>
+          <t>建信科技创新混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>34.44</t>
+          <t>92.33</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0712</t>
+          <t>0.1564</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -3827,36 +2877,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008178</t>
+          <t>168207</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>同泰慧盈混合A</t>
+          <t>中融创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>89.28</t>
+          <t>81.23</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0309</t>
+          <t>0.1387</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -3865,36 +2915,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009186</t>
+          <t>007202</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天弘聚新三个月定期开放混合A</t>
+          <t>天弘优质成长企业精选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>27.80</t>
+          <t>88.90</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0287</t>
+          <t>0.1382</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -3903,36 +2953,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007770</t>
+          <t>008009</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>同泰开泰混合A</t>
+          <t>华商高端装备制造股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>4.09</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>86.47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0188</t>
+          <t>0.1337</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -3941,32 +2991,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008179</t>
+          <t>001457</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>同泰慧盈混合C</t>
+          <t>华商新常态灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>89.28</t>
+          <t>84.40</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>3.56</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0126</t>
+          <t>0.0805</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -3979,36 +3029,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>710301</t>
+          <t>010570</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>富安达增强收益债券A</t>
+          <t>新沃创新领航混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>73.77</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0741</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -4017,36 +3067,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007771</t>
+          <t>519975</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>同泰开泰混合C</t>
+          <t>长信量化中小盘股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0057</t>
+          <t>0.0739</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -4055,36 +3105,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>710302</t>
+          <t>010194</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富安达增强收益债券C</t>
+          <t>博时睿祥15个月定期开放混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>64.37</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.0646</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -4093,36 +3143,872 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009187</t>
+          <t>005341</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>天弘聚新三个月定期开放混合C</t>
+          <t>长安裕泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27.80</t>
+          <t>88.73</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0620</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.67</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009828</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>融通转型三动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160522</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>博时睿益事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003092</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商丰利增强定期开放债券A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003093</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华商丰利增强定期开放债券C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005429</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005430</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>渤海汇金睿选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0000</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4136,7 +4022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4147,17 +4033,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4167,14 +4073,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.95</v>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0938</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4183,14 +4111,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.71</v>
+          <t>009891</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通产业趋势臻选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4261</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4199,14 +4149,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.08</v>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4215,14 +4187,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.42</v>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4231,30 +4225,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>38</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.96</v>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300415-伊之密.xlsx
+++ b/数据整理/stocks/A股/创业板/300415-伊之密.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>1.95</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>1.71</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4.42</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>4.15</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>38</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.96</v>
       </c>
     </row>
@@ -583,6 +600,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9144</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1702</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015694</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>瑞达策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>67.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015695</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>瑞达策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1246,7 +1583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1568,7 +1905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1776,7 +2113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2516,7 +2853,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4016,7 +4353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300415-伊之密.xlsx
+++ b/数据整理/stocks/A股/创业板/300415-伊之密.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>1.22</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.95</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D4" t="n">
-        <v>1.71</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>4.42</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>4.15</v>
+        <v>4.42</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>38</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.96</v>
       </c>
     </row>
@@ -600,6 +617,585 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2050</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7961</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011192</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011193</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>34.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>40.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>017537</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红远见价值混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -919,7 +1515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1583,7 +2179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1905,7 +2501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2113,7 +2709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2853,7 +3449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4353,7 +4949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
